--- a/Raw_data/Site_Data/Site.Info.xlsx
+++ b/Raw_data/Site_Data/Site.Info.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:1_{8C2B2A7F-DE5B-4794-A3B7-7710C48AE9A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3221539-92AD-497D-9935-02A0BF57ECDD}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ABSfielddata.Feb.2023_Site.info" sheetId="1" r:id="rId1"/>
@@ -1153,7 +1153,7 @@
   </sheetPr>
   <dimension ref="A1:X25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="W2" sqref="W2:W3"/>
     </sheetView>
   </sheetViews>
@@ -2893,8 +2893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47034676-2AE9-4E5F-BC3B-E2A7176E0645}">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
